--- a/data/production.xlsx
+++ b/data/production.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G2"/>
@@ -589,6 +589,64 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>15.11.2023</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>muhammad</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G6" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>15.11.2023</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mmmm</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>muhammad</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>50</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/data/production.xlsx
+++ b/data/production.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G2"/>
@@ -647,6 +647,35 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>16.11.2023</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>m1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>muhammad</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>50</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/data/production.xlsx
+++ b/data/production.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G2"/>
@@ -676,6 +676,35 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>16.11.2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>mmm</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>muhammad</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>50</v>
+      </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/data/production.xlsx
+++ b/data/production.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:G2"/>
@@ -705,6 +705,64 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>17.11.2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>aibek</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>100</v>
+      </c>
+      <c r="E10" t="n">
+        <v>150</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G10" t="n">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>17.11.2023</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>mmm</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>aibek</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>50</v>
+      </c>
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
